--- a/models2/rf5/es2/excel/wait.xlsx
+++ b/models2/rf5/es2/excel/wait.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Anaconda3\envs\MachineLearning2\TrafficSignalDRL\models2\rf5\es2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE5D5CB-1FE8-4D1C-8B79-5C2467F96193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2BE8B6-DAF7-4D20-83DA-85FF28A3FF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,6 +216,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$59:$V$59</c:f>
@@ -317,6 +388,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$60:$V$60</c:f>
@@ -418,6 +560,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$61:$V$61</c:f>
@@ -519,6 +732,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$62:$V$62</c:f>
@@ -615,6 +899,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$63:$V$63</c:f>
@@ -711,6 +1066,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$64:$V$64</c:f>
@@ -807,6 +1233,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$65:$V$65</c:f>
@@ -903,6 +1400,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$58:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$66:$V$66</c:f>
@@ -1001,6 +1569,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1048,10 +1617,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
@@ -1367,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:V66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X63" sqref="X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
